--- a/excel/days.xlsx
+++ b/excel/days.xlsx
@@ -16,76 +16,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>2021-08-26</t>
-  </si>
-  <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
-    <t>2021-08-28</t>
-  </si>
-  <si>
-    <t>2021-08-29</t>
-  </si>
-  <si>
-    <t>2021-08-30</t>
-  </si>
-  <si>
-    <t>2021-08-31</t>
-  </si>
-  <si>
-    <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021-09-02</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>2021-09-05</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>Aug. 26 is Opening Day of the Minnesota State Fair! Discounted admission prices for adults and kids at the entrance gates: $14 for adults (13-64), $11 for seniors (65+) and $11 for kids (5-12). Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Stop by Dan Patch Park for fun with science and technology on STEM Day.</t>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>Aug. 25 is Opening Day of the Minnesota State Fair! Discounted admission prices for adults and kids at the entrance gates: $16 for adults (13-64), $13 for seniors (65+) and $13 for kids (5-12). Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Stop by Dan Patch Park for fun with science and technology on STEM Day.</t>
   </si>
   <si>
     <t>Welcome to the Minnesota State Fair! Early Bird specials are offered until 1 p.m. at Mighty Midway and Kidway. Catch fire safety and life-saving activities throughout the fairgrounds as part of Governor's Fire Prevention Day.</t>
   </si>
   <si>
-    <t>Welcome to the Minnesota State Fair! Visit the barns and animal competition areas to celebrate 4-H. See displays and performances in the 4-H Building.</t>
-  </si>
-  <si>
-    <t>Welcome to the Minnesota State Fair!</t>
-  </si>
-  <si>
-    <t>Today is Seniors Day at the Minnesota State Fair! Discounted admission prices for seniors 65+ at the entrance gates is $11. Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Don't miss State Patrol Day at the North End and Mental Health Awareness at Dan Patch Park.</t>
-  </si>
-  <si>
-    <t>Today is Military Appreciation Day at the Minnesota State Fair! Discounted admission prices for active military, retired military and veterans at the entrance gates (with valid documentation of military services): $11 for active military, their spouses and kids; $11 for retired military and their spouses; $11 for military veterans and their spouses. Early Bird Specials are offered on Mighty Midway and Kidway rides &amp; games until 1 p.m. Deals on merchandise and food for all fair guests.</t>
-  </si>
-  <si>
-    <t>Today is Kids Day at the Minnesota State Fair! Discounted admission prices at the entrance gates for kids is $11. Deals on merchandise and food for all fair guests. All-day specials are offered on Mighty Midway and Kidway rides &amp; games. Deals on merchandise and food for all fair guests.</t>
-  </si>
-  <si>
-    <t>Today is Seniors Day at the Minnesota State Fair! Discounted admission price for seniors 65+ at the entrance gates is $11. Deals on merchandise and food for all fair guests. Early Bird specials offered on Mighty Midway and Kidway rides &amp; games until 1 p.m. Dan Patch Park features the UCare Stretch &amp; Stroll, plus live music and health &amp; wellness programming onstage.</t>
+    <t>Welcome to the Minnesota State Fair! Visit the barns and animal competition areas to celebrate 4-H. See displays and performances in the 4-H Building. Stop by Dan Patch Park for Hubbard Broadcasting Day.</t>
+  </si>
+  <si>
+    <t>Welcome to the Minnesota State Fair! Visit the animals early – the Cattle and Sheep &amp; Poultry barns and the Christensen Pavilion close at 1 p.m. today. Stop by Dan Patch Park for Indigenous Food Lab Day!_x000B_</t>
+  </si>
+  <si>
+    <t>Today is Seniors Day at the Minnesota State Fair! Discounted admission prices for seniors 65+ at the entrance gates is $13. Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Don't miss State Patrol Day at the North End and Mental Health Awareness at Dan Patch Park.</t>
+  </si>
+  <si>
+    <t>Today is Military Appreciation Day at the Minnesota State Fair! Discounted admission prices for active military, retired military and veterans at the entrance gates (with valid documentation of military services): $13 for active military, their spouses and kids; $13 for retired military and their spouses; $13 for military veterans and their spouses. Early Bird Specials are offered on Mighty Midway and Kidway rides &amp; games until 1 p.m. Deals on merchandise and food for all fair guests.</t>
+  </si>
+  <si>
+    <t>Today is Kids Day at the Minnesota State Fair! Discounted admission prices at the entrance gates for kids is $13. Deals on merchandise and food for all fair guests. All-day specials are offered on Mighty Midway and Kidway rides &amp; games. Deals on merchandise and food for all fair guests. Stop by Dan Patch Park for Library Day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today is Seniors Day at the Minnesota State Fair! Discounted admission price for seniors 65+ at the entrance gates is $13. Deals on merchandise and food for all fair guests. Early Bird specials offered on Mighty Midway and Kidway rides &amp; games until 1 p.m. Visit the animals early – the Cattle and Sheep &amp; Poultry barns and the Christensen Pavilion close at 1 p.m. today. Dan Patch Park features the UCare Stretch &amp; Stroll, plus live music and health &amp; wellness programming onstage. </t>
   </si>
   <si>
     <t>Welcome to the Minnesota State Fair! Catch MPR Day at Dan Patch Park. Early Bird Specials until 1 p.m. at Mighty Midway and Kidway.</t>
   </si>
   <si>
-    <t>Welcome to the Minnesota State Fair! Visit the barns and animal competition areas for FFA livestock judging and programs.</t>
+    <t>Welcome to the Minnesota State Fair! Visit the barns and animal competition areas for FFA livestock judging and programs. Catch AARP Day at Dan Patch Park!</t>
   </si>
   <si>
     <t>Today is Friends of the Fair Day! Hats off to Friends of the Fair, who support the nonprofit mission of the Minnesota State Fair Foundation.</t>
   </si>
   <si>
-    <t>Today is Kids Day! Discounted admission price for kids at the entrance gates: $10 for kids (5-12). Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Celebrate Hmong Minnesota Day at Dan Patch Park. Last Chance bargains throughout the fair. CHS Miracle of Birth Center and the barns close early today. Don't miss the fireworks at 9 p.m. tonight!</t>
+    <t>Today is Kids Day! Discounted admission price for kids at the entrance gates: $13 for kids (5-12). Deals on merchandise and food for all fair guests. All-day specials offered on Mighty Midway and Kidway rides &amp; games. Celebrate Hmong Minnesota Day at Dan Patch Park. Last Chance bargains throughout the fair. CHS Miracle of Birth Center and the barns close early today. Don't miss the fireworks at 9 p.m. tonight!</t>
   </si>
   <si>
     <t>date</t>
